--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.36.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.36.xlsx
@@ -106,12 +106,12 @@
     <t>checks</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t xml:space="preserve">אנחנו רוצים אההה </t>
   </si>
   <si>
-    <t>trans</t>
-  </si>
-  <si>
     <t xml:space="preserve">אנחנו כבר הרבה שעות פה </t>
   </si>
   <si>
@@ -238,6 +238,9 @@
     <t>gives-l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
   </si>
   <si>
@@ -251,9 +254,6 @@
   </si>
   <si>
     <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>זה קשה זה נכון.</t>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1348,7 +1348,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1519,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -1547,7 +1547,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1645,7 +1645,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1754,10 +1754,10 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1782,7 +1782,7 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1810,7 +1810,7 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -1883,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2093,7 +2093,7 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2146,7 +2146,7 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
@@ -2244,7 +2244,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2398,10 +2398,10 @@
         <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -2636,7 +2636,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
